--- a/medicine/Enfance/Jean_Alfred_Gérard-Séguin/Jean_Alfred_Gérard-Séguin.xlsx
+++ b/medicine/Enfance/Jean_Alfred_Gérard-Séguin/Jean_Alfred_Gérard-Séguin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Alfred_G%C3%A9rard-S%C3%A9guin</t>
+          <t>Jean_Alfred_Gérard-Séguin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Gérard Alfred Séguin, connu sous le nom de Gérard-Séguin, né le 9 avril 1804 à Paris[1] et mort le 27 novembre 1872 dans le 6e arrondissement de la même ville[2], est un peintre et illustrateur français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Gérard Alfred Séguin, connu sous le nom de Gérard-Séguin, né le 9 avril 1804 à Paris et mort le 27 novembre 1872 dans le 6e arrondissement de la même ville, est un peintre et illustrateur français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Alfred_G%C3%A9rard-S%C3%A9guin</t>
+          <t>Jean_Alfred_Gérard-Séguin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né en 1804 rue de Vaugirard dans le 11e arrondissement de Paris, Jean Gérard Alfred Seguin est le fils de Nicolas François Seguin (1772-1852), employé au Conseil d'État et de Marie Françoise Geneviève Menet (1780-1856)[3], fille d'un bourgeois de Paris[4].  
-Il a pour parrain Jean Gérard Lacuée (1752-1841), général et conseiller d'État et son père devient ensuite secrétaire de la section de la Guerre au Conseil d'État, résidant à l'École polytechnique. C'est à cette adresse que naît sa sœur Clotilde Seguin (1806-1873), également artiste peintre, morte célibataire[5]. 
-En 1871, il est témoin au mariage entre Jean Louis Outhwaite, fils du graveur Jean-Jacques Outhwaite (1810-1878) et Marguerite Thérond, fille du dessinateur lithographe Emile Thérond (1821-1883)[6]. En 1872, il meurt célibataire à son domicile situé 48, rue Saint-Placide à Paris. 
-Carrière
-Élève de Jérôme-Martin Langlois à l'École des beaux-arts de Paris, Gérard-Séguin expose aux Salons entre 1831 et 1868. Sous l'impulsion de Prosper Mérimée et de la commission des monuments historiques, il exécute des relevés des fresques de l'abbaye de Saint-Savin-sur-Gartempe en 1841. 
-Il réalise le portrait au pastel d'Honoré de Balzac exposé au Salon de 1842, conservé au musée des Beaux-Arts de Tours, et dont le modèle ne fut guère satisfait[7].
-Mais l'activité principale de Gérard-Séguin est de concevoir des illustrations pour l'édition, ses dessins étant interprétés par des graveurs sur bois. Il illustre ainsi dans une veine romantique des œuvres d'auteurs comme Victor Hugo, Alphonse Karr, ou Louis Desnoyers[8]. Il réalise des dessins pour l'édition Furne de La Comédie humaine de Balzac en 1842 et en 1846[7]. Il a longuement collaboré avec l'éditeur Pierre-Jules Hetzel dont il était l'ami. Il a également œuvré dans le domaine de la littérature pour enfants.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en 1804 rue de Vaugirard dans le 11e arrondissement de Paris, Jean Gérard Alfred Seguin est le fils de Nicolas François Seguin (1772-1852), employé au Conseil d'État et de Marie Françoise Geneviève Menet (1780-1856), fille d'un bourgeois de Paris.  
+Il a pour parrain Jean Gérard Lacuée (1752-1841), général et conseiller d'État et son père devient ensuite secrétaire de la section de la Guerre au Conseil d'État, résidant à l'École polytechnique. C'est à cette adresse que naît sa sœur Clotilde Seguin (1806-1873), également artiste peintre, morte célibataire. 
+En 1871, il est témoin au mariage entre Jean Louis Outhwaite, fils du graveur Jean-Jacques Outhwaite (1810-1878) et Marguerite Thérond, fille du dessinateur lithographe Emile Thérond (1821-1883). En 1872, il meurt célibataire à son domicile situé 48, rue Saint-Placide à Paris. 
 </t>
         </is>
       </c>
@@ -530,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_Alfred_G%C3%A9rard-S%C3%A9guin</t>
+          <t>Jean_Alfred_Gérard-Séguin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,15 +555,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Œuvres dans les collections publiques</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tours, musée des beaux-arts : Portrait de Honoré de Balzac, 1843, pastel.
-Laval, chapelle du collège : La Présentation de la Vierge, 1845.
-Valence, musée d'art et d'archéologies : La Sentinelle de Février, 1849, huile sur toile.
-Paris, église Saint-Eugène-Sainte-Cécile : verrières du Chemin de croix,  1858, dont les cartons ont été dessinés par Gérard-Seguin[9].</t>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élève de Jérôme-Martin Langlois à l'École des beaux-arts de Paris, Gérard-Séguin expose aux Salons entre 1831 et 1868. Sous l'impulsion de Prosper Mérimée et de la commission des monuments historiques, il exécute des relevés des fresques de l'abbaye de Saint-Savin-sur-Gartempe en 1841. 
+Il réalise le portrait au pastel d'Honoré de Balzac exposé au Salon de 1842, conservé au musée des Beaux-Arts de Tours, et dont le modèle ne fut guère satisfait.
+Mais l'activité principale de Gérard-Séguin est de concevoir des illustrations pour l'édition, ses dessins étant interprétés par des graveurs sur bois. Il illustre ainsi dans une veine romantique des œuvres d'auteurs comme Victor Hugo, Alphonse Karr, ou Louis Desnoyers. Il réalise des dessins pour l'édition Furne de La Comédie humaine de Balzac en 1842 et en 1846. Il a longuement collaboré avec l'éditeur Pierre-Jules Hetzel dont il était l'ami. Il a également œuvré dans le domaine de la littérature pour enfants.
+</t>
         </is>
       </c>
     </row>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean_Alfred_G%C3%A9rard-S%C3%A9guin</t>
+          <t>Jean_Alfred_Gérard-Séguin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres dans les collections publiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tours, musée des beaux-arts : Portrait de Honoré de Balzac, 1843, pastel.
+Laval, chapelle du collège : La Présentation de la Vierge, 1845.
+Valence, musée d'art et d'archéologies : La Sentinelle de Février, 1849, huile sur toile.
+Paris, église Saint-Eugène-Sainte-Cécile : verrières du Chemin de croix,  1858, dont les cartons ont été dessinés par Gérard-Seguin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_Alfred_Gérard-Séguin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Alfred_G%C3%A9rard-S%C3%A9guin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Livres illustrés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Auteurs par ordre alphabétique
@@ -592,9 +645,9 @@
 Collectif, Le Diable à Paris, édition Marescq et Co, 1853.
 Alexandre Dumas, Paul de Musset, E. Orliac, Le nouveau magasin des enfants : 3, édition J.Hetzel, 1860.
 Louis Baudet, Mythologie de la jeunesse, édition J.Hetzel, 1845.
-Louis Desnoyers, Les aventures de Jean-Paul Choppart, L’épisode de Panouille par Frédéric Goupil, dessins de Gérard-Séguin gravés sur bois par Andrew Best Leloir, édition Dubochet, 1843[8].
+Louis Desnoyers, Les aventures de Jean-Paul Choppart, L’épisode de Panouille par Frédéric Goupil, dessins de Gérard-Séguin gravés sur bois par Andrew Best Leloir, édition Dubochet, 1843.
 Fénelon, Les aventures de Télémaque, édition Ernest Bourdin, vers 1840.
-Arsène Houssaye, Le Royaume des Roses, collection « Le Nouveau Magasin des Enfants », édition E.Blanchard, 1851[10].
+Arsène Houssaye, Le Royaume des Roses, collection « Le Nouveau Magasin des Enfants », édition E.Blanchard, 1851.
 Victor Hugo, Œuvres complètes de Victor Hugo, 4 volumes, édition J.Hetzel, 1853-1854.
 Alphonse Karr, Histoire d'un Pion, suivie de l'Emploi du temps, de deux dialogues sur le courage et de l'Esprit des Lois ou les Voleurs volés, édition Blanchard, 1854.
 Pierre Lachambeaudie, Fables, édition J.Bry, 1855.
@@ -602,7 +655,7 @@
 Abbé de Meissas, Histoire sainte comprenant l'Ancien et le Nouveau testament, édition J.Hetzel, sans date.
 Prosper Mérimée, Notice sur les peintures de l'église de Saint-Savin, Imprimerie royale, 1845.
 Molière, Œuvres complètes, édition Marescq, 1851.
-Paul de Musset, Monsieur le Vent et madame la Pluie,  édition J.Hetzel, 1846[11].
+Paul de Musset, Monsieur le Vent et madame la Pluie,  édition J.Hetzel, 1846.
 Édouard Ourliac, Le Prince Coqueluche, édition J.Hetzel, 1846.
 Charles Perrault, Contes de Perrault, édition Blanchard, 1851.
 Charles-Guillaume Sourdille de La Valette, Fables, édition J.Hetzel et Paulin, 1841.
